--- a/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T16:52:24+01:00</t>
+    <t>2023-03-15T11:12:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T11:12:20+01:00</t>
+    <t>2023-03-15T12:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T12:10:14+01:00</t>
+    <t>2023-03-15T13:47:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/www/pdsm/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T13:47:26+01:00</t>
+    <t>2023-03-20T12:21:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
